--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53D844-2C18-2A47-9599-3336234A2A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F2D19B-F573-414F-A428-AB2D8EEBF4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -40,12 +40,6 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>Pegawai</t>
-  </si>
-  <si>
-    <t>pegawai</t>
-  </si>
-  <si>
     <t>Operator</t>
   </si>
   <si>
@@ -74,18 +68,37 @@
   </si>
   <si>
     <t>chairman</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>participant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,27 +486,35 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F2D19B-F573-414F-A428-AB2D8EEBF4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAE635-2CDA-BC4B-ADBF-1C221A8E5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -80,18 +80,37 @@
   </si>
   <si>
     <t>participant</t>
+  </si>
+  <si>
+    <t>Ketua Panitia</t>
+  </si>
+  <si>
+    <t>committee-chairman</t>
+  </si>
+  <si>
+    <t>Anggota</t>
+  </si>
+  <si>
+    <t>committee-member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -517,6 +537,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAE635-2CDA-BC4B-ADBF-1C221A8E5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192D316-A5EF-2B44-A91D-5D7CC44052C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -52,15 +52,6 @@
     <t>thirdparty</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>auditor</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t>chairman</t>
   </si>
   <si>
-    <t>Speaker</t>
-  </si>
-  <si>
     <t>speaker</t>
   </si>
   <si>
@@ -82,16 +70,22 @@
     <t>participant</t>
   </si>
   <si>
-    <t>Ketua Panitia</t>
-  </si>
-  <si>
-    <t>committee-chairman</t>
-  </si>
-  <si>
-    <t>Anggota</t>
-  </si>
-  <si>
-    <t>committee-member</t>
+    <t>Anggota LKD</t>
+  </si>
+  <si>
+    <t>Ketua Pelaksana</t>
+  </si>
+  <si>
+    <t>Anggota Pelaksana</t>
+  </si>
+  <si>
+    <t>moderator</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>Narasumber</t>
   </si>
 </sst>
 </file>
@@ -445,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,59 +492,51 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1192D316-A5EF-2B44-A91D-5D7CC44052C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC330F-A753-394C-90F6-F869EE6D60CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>speaker</t>
   </si>
   <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
     <t>Anggota LKD</t>
   </si>
   <si>
@@ -86,18 +80,31 @@
   </si>
   <si>
     <t>Narasumber</t>
+  </si>
+  <si>
+    <t>Kepala PD</t>
+  </si>
+  <si>
+    <t>officer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,7 +450,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +501,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -509,34 +517,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC330F-A753-394C-90F6-F869EE6D60CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178CEF6-2A76-5E4C-93DF-70A58F721DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="6640" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -86,18 +86,43 @@
   </si>
   <si>
     <t>officer</t>
+  </si>
+  <si>
+    <t>admin_opd</t>
+  </si>
+  <si>
+    <t>admin_posyandu</t>
+  </si>
+  <si>
+    <t>admin_desa</t>
+  </si>
+  <si>
+    <t>Admin OPD</t>
+  </si>
+  <si>
+    <t>Admin Posyandu</t>
+  </si>
+  <si>
+    <t>Admin Desa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,6 +573,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178CEF6-2A76-5E4C-93DF-70A58F721DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED5FE4-0BC2-2B47-8FA6-7186F4257BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="6640" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -104,18 +104,31 @@
   </si>
   <si>
     <t>Admin Desa</t>
+  </si>
+  <si>
+    <t>Kader Posyandu</t>
+  </si>
+  <si>
+    <t>cadre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,6 +611,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED5FE4-0BC2-2B47-8FA6-7186F4257BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178930C-8E26-7E43-AA63-1DB5F535F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -110,18 +110,31 @@
   </si>
   <si>
     <t>cadre</t>
+  </si>
+  <si>
+    <t>Admin Kecamatan</t>
+  </si>
+  <si>
+    <t>admin_camat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,33 +603,41 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
     </row>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178930C-8E26-7E43-AA63-1DB5F535F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC2F14-94E6-AB43-B391-65F681E031AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -116,18 +116,31 @@
   </si>
   <si>
     <t>admin_camat</t>
+  </si>
+  <si>
+    <t>Masyarakat</t>
+  </si>
+  <si>
+    <t>warga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,8 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -641,6 +655,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC2F14-94E6-AB43-B391-65F681E031AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF9E166-5E0E-174B-B54B-18D9EB1E49F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,25 +115,32 @@
     <t>Admin Kecamatan</t>
   </si>
   <si>
-    <t>admin_camat</t>
-  </si>
-  <si>
     <t>Masyarakat</t>
   </si>
   <si>
     <t>warga</t>
+  </si>
+  <si>
+    <t>admin_kecamatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,8 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,7 +526,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,8 +643,8 @@
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,10 +665,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF9E166-5E0E-174B-B54B-18D9EB1E49F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBC3B3-5030-9640-B7A5-B06EA39B410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
